--- a/toolbox_data/parsers/pp_transpaper_parser.xlsx
+++ b/toolbox_data/parsers/pp_transpaper_parser.xlsx
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/toolbox_data/parsers/pp_transpaper_parser.xlsx
+++ b/toolbox_data/parsers/pp_transpaper_parser.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Node level</t>
   </si>
@@ -198,105 +198,6 @@
     <t>REP_CELL_VOLUME</t>
   </si>
   <si>
-    <t>PROVTAGNINGSÅR</t>
-  </si>
-  <si>
-    <t>PROJEKT/UNDERSÖKNING (Kod)</t>
-  </si>
-  <si>
-    <t>PROJEKTNAMN</t>
-  </si>
-  <si>
-    <t>BESTÄLLARE</t>
-  </si>
-  <si>
-    <t>PROVTAGNINGSDATUM</t>
-  </si>
-  <si>
-    <t>ANALYSDATUM</t>
-  </si>
-  <si>
-    <t>LATITUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONGITUD </t>
-  </si>
-  <si>
-    <t>POSITIONERINGSSYSTEM (Kod)</t>
-  </si>
-  <si>
-    <t>STATIONSNAMN</t>
-  </si>
-  <si>
-    <t>VATTENDJUP (m)</t>
-  </si>
-  <si>
-    <t>BESÖKSKOMMENTAR</t>
-  </si>
-  <si>
-    <t>PROV-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROVETS ÖVRE DJUP (m) </t>
-  </si>
-  <si>
-    <t>PROVTAGNINGSVOLYM (l)</t>
-  </si>
-  <si>
-    <t>FIXERINGSMETOD (Kod)</t>
-  </si>
-  <si>
-    <t>PROV-KOMMENTAR</t>
-  </si>
-  <si>
-    <t>TAXON NAMN</t>
-  </si>
-  <si>
-    <t>ARTFLAGGA (Kod)</t>
-  </si>
-  <si>
-    <t>TROFI (Kod)</t>
-  </si>
-  <si>
-    <t>RÄKNADE INDIVIDER (st)</t>
-  </si>
-  <si>
-    <t>BERÄKNINGSKOEFFICIENT</t>
-  </si>
-  <si>
-    <t>KONCENTRATION (celler/l)</t>
-  </si>
-  <si>
-    <t>STORLEKSKLASS</t>
-  </si>
-  <si>
-    <t>STORLEKSKLASSREFERENS</t>
-  </si>
-  <si>
-    <t>TAXONOM</t>
-  </si>
-  <si>
-    <t>SEDIMENTATIONSKAMMARVOLYM (ml)</t>
-  </si>
-  <si>
-    <t>FÖRSTORNINGSGRAD</t>
-  </si>
-  <si>
-    <t>METODDOKUMENT</t>
-  </si>
-  <si>
-    <t>VARIABEL-KOMMENTAR</t>
-  </si>
-  <si>
-    <t>Cellvolym µm3</t>
-  </si>
-  <si>
-    <t>Biovolume   mm3/L</t>
-  </si>
-  <si>
-    <t>Total Phytoplankton Carbon  µg C/L (Menden-Dauer &amp; Lessard 2000)</t>
-  </si>
-  <si>
     <t>$Text('STATIONSNAMN')</t>
   </si>
   <si>
@@ -343,9 +244,6 @@
   </si>
   <si>
     <t xml:space="preserve">$Text('PROVTAGNINGSDATUM')+u':'+$Text('STATIONSNAMN')+u':'+$Text('PROV-ID') </t>
-  </si>
-  <si>
-    <t>Lars Edlers kolumner:</t>
   </si>
   <si>
     <t>CLASS</t>
@@ -457,8 +355,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -657,7 +557,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="197">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -755,6 +655,7 @@
     <cellStyle name="Följd hyperlänk" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -852,6 +753,7 @@
     <cellStyle name="Hyperlänk" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,26 +1083,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="82.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>42</v>
@@ -1219,11 +1120,8 @@
       <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1236,11 +1134,8 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1248,13 +1143,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1262,13 +1154,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1278,11 +1167,8 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1292,11 +1178,8 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1306,27 +1189,16 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1334,19 +1206,16 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1357,16 +1226,13 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1374,10 +1240,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -1385,16 +1251,8 @@
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1402,10 +1260,10 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
@@ -1413,11 +1271,8 @@
       <c r="G14" t="s">
         <v>56</v>
       </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1425,10 +1280,10 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -1436,11 +1291,8 @@
       <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1448,24 +1300,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="J17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1473,19 +1317,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1493,19 +1334,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1513,19 +1351,16 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1533,24 +1368,16 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="J22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1558,19 +1385,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="J23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1578,10 +1402,10 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -1589,11 +1413,8 @@
       <c r="G24" t="s">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1601,19 +1422,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1621,19 +1439,16 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
-      <c r="J26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1641,10 +1456,10 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -1652,11 +1467,8 @@
       <c r="G27" t="s">
         <v>55</v>
       </c>
-      <c r="J27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1664,59 +1476,53 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="J28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1724,24 +1530,16 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
       </c>
-      <c r="J31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="J32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1749,19 +1547,16 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
-      <c r="J33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1769,19 +1564,16 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1789,40 +1581,37 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
       </c>
-      <c r="J35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
